--- a/WebTest/Develop_Plan_20170315.xlsx
+++ b/WebTest/Develop_Plan_20170315.xlsx
@@ -1175,39 +1175,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>是否有现成的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C/C++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库解析证书？如果没有是否可以用开源库，例如openssl或者botan</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>如何根据证书</t>
     </r>
     <r>
@@ -3459,6 +3426,10 @@
       <t xml:space="preserve">失败
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解析证书，C++标准库没有类似JAVA中X509接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3772,21 +3743,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3805,6 +3761,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4120,10 +4091,10 @@
     <row r="1" spans="2:9" ht="15" thickBot="1"/>
     <row r="2" spans="2:9">
       <c r="B2" s="1"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="6"/>
@@ -4179,14 +4150,14 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9">
       <c r="F9" s="9" t="s">
@@ -4682,114 +4653,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="63.75" customWidth="1"/>
-    <col min="2" max="2" width="61.25" style="26" customWidth="1"/>
+    <col min="2" max="2" width="61.25" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" ht="127.5">
+      <c r="A2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:3" ht="127.5">
-      <c r="A2" s="30" t="s">
+      <c r="B2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" ht="99">
+      <c r="A3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="99">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="117" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="117" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="99.75">
+      <c r="A5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" ht="99.75">
-      <c r="A5" s="30" t="s">
+      <c r="B5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" ht="114">
+      <c r="A6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" ht="114">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="99.75">
+      <c r="A7" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3" ht="99.75">
-      <c r="A7" s="30" t="s">
+      <c r="B7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" ht="128.25">
+      <c r="A8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" ht="128.25">
-      <c r="A8" s="30" t="s">
+      <c r="B8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" ht="113.25">
+      <c r="A9" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" ht="113.25">
-      <c r="A9" s="30" t="s">
+      <c r="B9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:3" ht="85.5">
+      <c r="A10" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" ht="85.5">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" ht="141.75">
+      <c r="A11" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="141.75">
-      <c r="A11" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
